--- a/versuch_3/messungen/Linker_großer_Lautsprecher.xlsx
+++ b/versuch_3/messungen/Linker_großer_Lautsprecher.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds-08\Desktop\Töne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC471F1-3268-48A1-B51B-4721491569AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62B8FA4-8C02-4422-B7A1-A6F36F8F2CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{0B5C3E12-D58E-4FA5-8EE8-6F756E2DB09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,13 +38,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
+    <t>Frequenz in Hz</t>
+  </si>
+  <si>
+    <t>Peak to Peak A Avg</t>
+  </si>
+  <si>
+    <t>Peak to Peak B Avg</t>
+  </si>
+  <si>
     <t>Cycle Time</t>
   </si>
   <si>
-    <t>Peak to Peak A Avg</t>
-  </si>
-  <si>
-    <t>Peak to Peak B Avg</t>
+    <t>Phasenverschiebung</t>
+  </si>
+  <si>
+    <t>B = Mikrfon</t>
   </si>
   <si>
     <t>1.497 V</t>
@@ -45,18 +65,12 @@
     <t>10ms</t>
   </si>
   <si>
-    <t>B = Mikrfon</t>
+    <t>4.063 ms</t>
   </si>
   <si>
     <t>A= Sinusgenerator</t>
   </si>
   <si>
-    <t>Phasenverschiebung</t>
-  </si>
-  <si>
-    <t>4.063 ms</t>
-  </si>
-  <si>
     <t>1.495 V</t>
   </si>
   <si>
@@ -156,9 +170,6 @@
     <t>0.1514 ms</t>
   </si>
   <si>
-    <t>Frequenz in Hz</t>
-  </si>
-  <si>
     <t>27.33 mV</t>
   </si>
   <si>
@@ -168,7 +179,7 @@
     <t>0.159 ms</t>
   </si>
   <si>
-    <t>25,13 mV</t>
+    <t>25.13 mV</t>
   </si>
   <si>
     <t>0.25 ms</t>
@@ -205,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,19 +565,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="3" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -575,228 +586,228 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>700</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>850</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1000</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1200</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1500</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1700</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2000</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3000</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -808,12 +819,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>4000</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -825,12 +836,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>5000</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -842,12 +853,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>6000</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -859,12 +870,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10000</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
